--- a/EXCEL/Chapter+13+Comparison+Chart+of+a+Company.xlsx
+++ b/EXCEL/Chapter+13+Comparison+Chart+of+a+Company.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\durge\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\durge\OneDrive\Desktop\Data Analytics\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366102D7-593F-4501-B012-188C5D24E86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE1B1A3-B711-40B5-871E-D7EBD069E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7358B7-601A-4206-9E08-00D0FDC669CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3D7358B7-601A-4206-9E08-00D0FDC669CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$486</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="547">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -1659,13 +1660,28 @@
   </si>
   <si>
     <t>2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party Name </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>2018 -19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1696,8 +1712,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1716,8 +1738,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1777,11 +1823,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1813,17 +1872,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="78">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1879,7 +1953,25 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2222,56 +2314,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2690,395 +2732,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3090,6 +2743,1117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018 -19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$E$7:$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D655-4676-85BC-F5C1B1EE0BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$E$7:$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$9:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D655-4676-85BC-F5C1B1EE0BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="471129280"/>
+        <c:axId val="471119200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="471129280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471119200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471119200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471129280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F081E5-EFDC-725E-7BF0-242AFDD9790D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11273,827 +12037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4180762-22D7-4E82-8F0E-F36C8CE75FC6}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="F3:H68" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="13">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="76">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="20"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="21"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="41"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="44"/>
-        <item x="48"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="42"/>
-        <item x="52"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="49"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="60"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="61"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField name="Months" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="10"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="65">
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Qty" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="39">
-    <format dxfId="41">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="12">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="5">
-            <x v="0"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="4">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="5"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="12">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="5">
-            <x v="0"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="0"/>
-          <reference field="10" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="4">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="5"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED1B3DF1-DC1D-476A-8D81-F7DB7C86A71F}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED1B3DF1-DC1D-476A-8D81-F7DB7C86A71F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C75" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -12625,19 +12569,19 @@
     <dataField name="Sum of Qty" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="39">
-    <format dxfId="104">
+    <format dxfId="38">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="36">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="35">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="12">
@@ -12657,7 +12601,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12667,7 +12611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12677,7 +12621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12687,7 +12631,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12697,7 +12641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12707,7 +12651,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12717,7 +12661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12727,7 +12671,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12737,7 +12681,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12747,7 +12691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12757,7 +12701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12767,7 +12711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12777,31 +12721,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="20">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="19">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="15">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="12">
@@ -12821,7 +12765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12831,7 +12775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12841,7 +12785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12851,7 +12795,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12861,7 +12805,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12871,7 +12815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12881,7 +12825,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12891,7 +12835,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12901,7 +12845,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12911,7 +12855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12921,7 +12865,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12931,7 +12875,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="0"/>
@@ -12941,7 +12885,827 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4180762-22D7-4E82-8F0E-F36C8CE75FC6}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="F3:H68" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="13">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="76">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="44"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="42"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="49"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="61"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField name="Months" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item sd="0" x="13"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="65">
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Qty" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="39">
+    <format dxfId="77">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="12">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="5">
+            <x v="0"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="5"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="4">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="12">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="5">
+            <x v="0"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="0"/>
+          <reference field="10" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="5"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="4">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -13256,8 +14020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35071BFE-7E77-42A5-A526-1A6F43DB1F30}">
   <dimension ref="A2:H75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13272,7 +14036,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>539</v>
       </c>
       <c r="C2" s="10"/>
@@ -13309,7 +14073,7 @@
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>3713</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -13318,7 +14082,7 @@
       <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>3023</v>
       </c>
     </row>
@@ -13329,7 +14093,7 @@
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>3195</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -13338,7 +14102,7 @@
       <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>3276</v>
       </c>
     </row>
@@ -13349,7 +14113,7 @@
       <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>2349</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -13358,7 +14122,7 @@
       <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>1662</v>
       </c>
     </row>
@@ -13369,7 +14133,7 @@
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>2217</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -13378,7 +14142,7 @@
       <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>4963</v>
       </c>
     </row>
@@ -13389,7 +14153,7 @@
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>2167</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -13398,7 +14162,7 @@
       <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>3272</v>
       </c>
     </row>
@@ -13409,7 +14173,7 @@
       <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1775</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -13418,7 +14182,7 @@
       <c r="G9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>4690</v>
       </c>
     </row>
@@ -13429,7 +14193,7 @@
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>5072</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -13438,7 +14202,7 @@
       <c r="G10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>3222</v>
       </c>
     </row>
@@ -13449,7 +14213,7 @@
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>4239</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -13458,7 +14222,7 @@
       <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>3171</v>
       </c>
     </row>
@@ -13469,7 +14233,7 @@
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>3556</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -13478,7 +14242,7 @@
       <c r="G12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>3014</v>
       </c>
     </row>
@@ -13489,7 +14253,7 @@
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>3533</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -13498,7 +14262,7 @@
       <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>4886</v>
       </c>
     </row>
@@ -13509,7 +14273,7 @@
       <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>3605</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -13518,7 +14282,7 @@
       <c r="G14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>3232</v>
       </c>
     </row>
@@ -13529,7 +14293,7 @@
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>3646</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -13538,7 +14302,7 @@
       <c r="G15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>3437</v>
       </c>
     </row>
@@ -13549,7 +14313,7 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>7786</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -13558,7 +14322,7 @@
       <c r="G16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>6480</v>
       </c>
     </row>
@@ -13569,7 +14333,7 @@
       <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>8303</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -13578,7 +14342,7 @@
       <c r="G17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>4762</v>
       </c>
     </row>
@@ -13589,7 +14353,7 @@
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>5790</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -13598,7 +14362,7 @@
       <c r="G18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>5148</v>
       </c>
     </row>
@@ -13609,7 +14373,7 @@
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>5020</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -13618,7 +14382,7 @@
       <c r="G19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>3230</v>
       </c>
     </row>
@@ -13629,7 +14393,7 @@
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>4722</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -13638,7 +14402,7 @@
       <c r="G20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>3098</v>
       </c>
     </row>
@@ -13649,7 +14413,7 @@
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>5306</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -13658,7 +14422,7 @@
       <c r="G21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>3372</v>
       </c>
     </row>
@@ -13669,7 +14433,7 @@
       <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>1209</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -13678,7 +14442,7 @@
       <c r="G22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>3236</v>
       </c>
     </row>
@@ -13689,7 +14453,7 @@
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>735</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -13698,7 +14462,7 @@
       <c r="G23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>3288</v>
       </c>
     </row>
@@ -13709,7 +14473,7 @@
       <c r="B24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>1133</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -13718,7 +14482,7 @@
       <c r="G24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>1573</v>
       </c>
     </row>
@@ -13729,7 +14493,7 @@
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>1254</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -13738,7 +14502,7 @@
       <c r="G25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>3408</v>
       </c>
     </row>
@@ -13749,7 +14513,7 @@
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>777</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -13758,7 +14522,7 @@
       <c r="G26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>4865</v>
       </c>
     </row>
@@ -13769,7 +14533,7 @@
       <c r="B27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>1369</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -13778,7 +14542,7 @@
       <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>1457</v>
       </c>
     </row>
@@ -13789,7 +14553,7 @@
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>1935</v>
       </c>
       <c r="F28" s="10" t="s">
@@ -13798,7 +14562,7 @@
       <c r="G28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>1486</v>
       </c>
     </row>
@@ -13809,7 +14573,7 @@
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>5673</v>
       </c>
       <c r="F29" s="10" t="s">
@@ -13818,7 +14582,7 @@
       <c r="G29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>3131</v>
       </c>
     </row>
@@ -13829,7 +14593,7 @@
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>3943</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -13838,7 +14602,7 @@
       <c r="G30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>3022</v>
       </c>
     </row>
@@ -13849,7 +14613,7 @@
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>3040</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -13858,7 +14622,7 @@
       <c r="G31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>1686</v>
       </c>
     </row>
@@ -13869,7 +14633,7 @@
       <c r="B32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>3120</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -13878,7 +14642,7 @@
       <c r="G32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>1789</v>
       </c>
     </row>
@@ -13889,7 +14653,7 @@
       <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>3021</v>
       </c>
       <c r="F33" s="10" t="s">
@@ -13898,7 +14662,7 @@
       <c r="G33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <v>1693</v>
       </c>
     </row>
@@ -13909,7 +14673,7 @@
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>3074</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -13918,7 +14682,7 @@
       <c r="G34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>1665</v>
       </c>
     </row>
@@ -13929,7 +14693,7 @@
       <c r="B35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>4464</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -13938,7 +14702,7 @@
       <c r="G35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <v>1451</v>
       </c>
     </row>
@@ -13949,7 +14713,7 @@
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>4233</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -13958,7 +14722,7 @@
       <c r="G36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>1604</v>
       </c>
     </row>
@@ -13969,7 +14733,7 @@
       <c r="B37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>2730</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -13978,7 +14742,7 @@
       <c r="G37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>3267</v>
       </c>
     </row>
@@ -13989,7 +14753,7 @@
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>2524</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -13998,7 +14762,7 @@
       <c r="G38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>6086</v>
       </c>
     </row>
@@ -14009,7 +14773,7 @@
       <c r="B39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>2262</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -14018,7 +14782,7 @@
       <c r="G39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>7641</v>
       </c>
     </row>
@@ -14029,7 +14793,7 @@
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>3319</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -14038,7 +14802,7 @@
       <c r="G40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>5002</v>
       </c>
     </row>
@@ -14049,7 +14813,7 @@
       <c r="B41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>4878</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -14058,7 +14822,7 @@
       <c r="G41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <v>7942</v>
       </c>
     </row>
@@ -14069,7 +14833,7 @@
       <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>6121</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -14078,7 +14842,7 @@
       <c r="G42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <v>7916</v>
       </c>
     </row>
@@ -14089,7 +14853,7 @@
       <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>3522</v>
       </c>
       <c r="F43" s="10" t="s">
@@ -14098,7 +14862,7 @@
       <c r="G43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <v>9502</v>
       </c>
     </row>
@@ -14109,7 +14873,7 @@
       <c r="B44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>4003</v>
       </c>
       <c r="F44" s="10" t="s">
@@ -14118,7 +14882,7 @@
       <c r="G44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <v>4857</v>
       </c>
     </row>
@@ -14129,7 +14893,7 @@
       <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>4005</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -14138,7 +14902,7 @@
       <c r="G45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <v>1676</v>
       </c>
     </row>
@@ -14149,7 +14913,7 @@
       <c r="B46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>1874</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -14158,7 +14922,7 @@
       <c r="G46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>6265</v>
       </c>
     </row>
@@ -14169,7 +14933,7 @@
       <c r="B47" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>4114</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -14178,7 +14942,7 @@
       <c r="G47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <v>3425</v>
       </c>
     </row>
@@ -14189,7 +14953,7 @@
       <c r="B48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>3798</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -14198,7 +14962,7 @@
       <c r="G48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>3252</v>
       </c>
     </row>
@@ -14209,7 +14973,7 @@
       <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>1946</v>
       </c>
       <c r="F49" s="10" t="s">
@@ -14218,7 +14982,7 @@
       <c r="G49" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="10">
         <v>3114</v>
       </c>
     </row>
@@ -14229,7 +14993,7 @@
       <c r="B50" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>2903</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -14238,7 +15002,7 @@
       <c r="G50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="10">
         <v>7354</v>
       </c>
     </row>
@@ -14249,7 +15013,7 @@
       <c r="B51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>3255</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -14258,7 +15022,7 @@
       <c r="G51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="10">
         <v>6166</v>
       </c>
     </row>
@@ -14269,7 +15033,7 @@
       <c r="B52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>6191</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -14278,7 +15042,7 @@
       <c r="G52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <v>6147</v>
       </c>
     </row>
@@ -14289,7 +15053,7 @@
       <c r="B53" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>7799</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -14298,7 +15062,7 @@
       <c r="G53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="10">
         <v>4977</v>
       </c>
     </row>
@@ -14309,7 +15073,7 @@
       <c r="B54" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>7085</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -14318,7 +15082,7 @@
       <c r="G54" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="10">
         <v>4744</v>
       </c>
     </row>
@@ -14329,7 +15093,7 @@
       <c r="B55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>5086</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -14338,7 +15102,7 @@
       <c r="G55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="10">
         <v>6156</v>
       </c>
     </row>
@@ -14349,7 +15113,7 @@
       <c r="B56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>5835</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -14358,7 +15122,7 @@
       <c r="G56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="10">
         <v>1787</v>
       </c>
     </row>
@@ -14369,7 +15133,7 @@
       <c r="B57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>4432</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -14378,7 +15142,7 @@
       <c r="G57" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="10">
         <v>4668</v>
       </c>
     </row>
@@ -14389,7 +15153,7 @@
       <c r="B58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <v>5049</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -14398,7 +15162,7 @@
       <c r="G58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="10">
         <v>6667</v>
       </c>
     </row>
@@ -14409,7 +15173,7 @@
       <c r="B59" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>3952</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -14418,7 +15182,7 @@
       <c r="G59" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="10">
         <v>6417</v>
       </c>
     </row>
@@ -14429,7 +15193,7 @@
       <c r="B60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>4771</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -14438,7 +15202,7 @@
       <c r="G60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <v>3388</v>
       </c>
     </row>
@@ -14449,7 +15213,7 @@
       <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <v>4307</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -14458,7 +15222,7 @@
       <c r="G61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="10">
         <v>4812</v>
       </c>
     </row>
@@ -14469,7 +15233,7 @@
       <c r="B62" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="10">
         <v>2058</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -14478,7 +15242,7 @@
       <c r="G62" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="10">
         <v>1737</v>
       </c>
     </row>
@@ -14489,7 +15253,7 @@
       <c r="B63" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <v>2545</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -14498,7 +15262,7 @@
       <c r="G63" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="10">
         <v>1680</v>
       </c>
     </row>
@@ -14509,7 +15273,7 @@
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="10">
         <v>2634</v>
       </c>
       <c r="F64" s="10" t="s">
@@ -14518,7 +15282,7 @@
       <c r="G64" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="10">
         <v>3003</v>
       </c>
     </row>
@@ -14529,7 +15293,7 @@
       <c r="B65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="10">
         <v>2054</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -14538,7 +15302,7 @@
       <c r="G65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="10">
         <v>3243</v>
       </c>
     </row>
@@ -14549,7 +15313,7 @@
       <c r="B66" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <v>2998</v>
       </c>
       <c r="F66" s="10" t="s">
@@ -14558,7 +15322,7 @@
       <c r="G66" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="10">
         <v>6093</v>
       </c>
     </row>
@@ -14569,7 +15333,7 @@
       <c r="B67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
         <v>1950</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -14578,7 +15342,7 @@
       <c r="G67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="10">
         <v>1484</v>
       </c>
     </row>
@@ -14589,7 +15353,7 @@
       <c r="B68" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="10">
         <v>1735</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -14598,7 +15362,7 @@
       <c r="G68" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="10">
         <v>1629</v>
       </c>
     </row>
@@ -14609,7 +15373,7 @@
       <c r="B69" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="10">
         <v>3410</v>
       </c>
     </row>
@@ -14620,7 +15384,7 @@
       <c r="B70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="10">
         <v>2939</v>
       </c>
     </row>
@@ -14631,7 +15395,7 @@
       <c r="B71" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <v>2543</v>
       </c>
     </row>
@@ -14642,7 +15406,7 @@
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="10">
         <v>2347</v>
       </c>
     </row>
@@ -14653,7 +15417,7 @@
       <c r="B73" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="10">
         <v>1095</v>
       </c>
     </row>
@@ -14664,7 +15428,7 @@
       <c r="B74" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="10">
         <v>2511</v>
       </c>
     </row>
@@ -14675,7 +15439,7 @@
       <c r="B75" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="10">
         <v>1225</v>
       </c>
     </row>
@@ -14689,8 +15453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CC9469-34C0-4103-B3DD-CBF324128568}">
   <dimension ref="A1:J648"/>
   <sheetViews>
-    <sheetView topLeftCell="A488" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A489" sqref="A488:J648"/>
+    <sheetView topLeftCell="A438" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D447" sqref="D447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35431,4 +36195,388 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A980D1-1205-40F7-99E6-F473919F5F9F}">
+  <dimension ref="B2:Q11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D2" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!E3)</f>
+        <v>1209</v>
+      </c>
+      <c r="F4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!F3)</f>
+        <v>1935</v>
+      </c>
+      <c r="G4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!G3)</f>
+        <v>3074</v>
+      </c>
+      <c r="H4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!H3)</f>
+        <v>3319</v>
+      </c>
+      <c r="I4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!I3)</f>
+        <v>1874</v>
+      </c>
+      <c r="J4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!J3)</f>
+        <v>6191</v>
+      </c>
+      <c r="K4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!K3)</f>
+        <v>5049</v>
+      </c>
+      <c r="L4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!L3)</f>
+        <v>2634</v>
+      </c>
+      <c r="M4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!M3)</f>
+        <v>2939</v>
+      </c>
+      <c r="N4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!N3)</f>
+        <v>3713</v>
+      </c>
+      <c r="O4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!O3)</f>
+        <v>5072</v>
+      </c>
+      <c r="P4" s="16">
+        <f>SUMIFS(Sheet2!$C:$C,Sheet2!$B:$B,Sheet3!$E$2,Sheet2!$A:$A,Sheet3!P3)</f>
+        <v>7786</v>
+      </c>
+      <c r="Q4" s="17">
+        <f>SUM(E4:P4)</f>
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!E3)</f>
+        <v>3372</v>
+      </c>
+      <c r="F5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!F3)</f>
+        <v>1457</v>
+      </c>
+      <c r="G5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!G3)</f>
+        <v>1693</v>
+      </c>
+      <c r="H5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!H3)</f>
+        <v>6086</v>
+      </c>
+      <c r="I5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!I3)</f>
+        <v>4857</v>
+      </c>
+      <c r="J5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!J3)</f>
+        <v>7354</v>
+      </c>
+      <c r="K5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!K3)</f>
+        <v>1787</v>
+      </c>
+      <c r="L5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!L3)</f>
+        <v>4812</v>
+      </c>
+      <c r="M5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!M3)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!N3)</f>
+        <v>3023</v>
+      </c>
+      <c r="O5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!O3)</f>
+        <v>3222</v>
+      </c>
+      <c r="P5" s="16">
+        <f>SUMIFS(Sheet2!$H:$H,Sheet2!$G:$G,Sheet3!$E$2,Sheet2!$F:$F,Sheet3!P3)</f>
+        <v>3437</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>SUM(E5:P5)</f>
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" s="16">
+        <f>SUM($E$4:E4)</f>
+        <v>1209</v>
+      </c>
+      <c r="F8" s="16">
+        <f>SUM($E$4:F4)</f>
+        <v>3144</v>
+      </c>
+      <c r="G8" s="16">
+        <f>SUM($E$4:G4)</f>
+        <v>6218</v>
+      </c>
+      <c r="H8" s="16">
+        <f>SUM($E$4:H4)</f>
+        <v>9537</v>
+      </c>
+      <c r="I8" s="16">
+        <f>SUM($E$4:I4)</f>
+        <v>11411</v>
+      </c>
+      <c r="J8" s="16">
+        <f>SUM($E$4:J4)</f>
+        <v>17602</v>
+      </c>
+      <c r="K8" s="16">
+        <f>SUM($E$4:K4)</f>
+        <v>22651</v>
+      </c>
+      <c r="L8" s="16">
+        <f>SUM($E$4:L4)</f>
+        <v>25285</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM($E$4:M4)</f>
+        <v>28224</v>
+      </c>
+      <c r="N8" s="16">
+        <f>SUM($E$4:N4)</f>
+        <v>31937</v>
+      </c>
+      <c r="O8" s="16">
+        <f>SUM($E$4:O4)</f>
+        <v>37009</v>
+      </c>
+      <c r="P8" s="16">
+        <f>SUM($E$4:P4)</f>
+        <v>44795</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="16">
+        <f>SUM($E$5:E5)</f>
+        <v>3372</v>
+      </c>
+      <c r="F9" s="16">
+        <f>SUM($E$5:F5)</f>
+        <v>4829</v>
+      </c>
+      <c r="G9" s="16">
+        <f>SUM($E$5:G5)</f>
+        <v>6522</v>
+      </c>
+      <c r="H9" s="16">
+        <f>SUM($E$5:H5)</f>
+        <v>12608</v>
+      </c>
+      <c r="I9" s="16">
+        <f>SUM($E$5:I5)</f>
+        <v>17465</v>
+      </c>
+      <c r="J9" s="16">
+        <f>SUM($E$5:J5)</f>
+        <v>24819</v>
+      </c>
+      <c r="K9" s="16">
+        <f>SUM($E$5:K5)</f>
+        <v>26606</v>
+      </c>
+      <c r="L9" s="16">
+        <f>SUM($E$5:L5)</f>
+        <v>31418</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM($E$5:M5)</f>
+        <v>31418</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM($E$5:N5)</f>
+        <v>34441</v>
+      </c>
+      <c r="O9" s="16">
+        <f>SUM($E$5:O5)</f>
+        <v>37663</v>
+      </c>
+      <c r="P9" s="16">
+        <f>SUM($E$5:P5)</f>
+        <v>41100</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q11" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{68E6345D-7606-46BF-BB5C-8D55C5BC8612}">
+      <formula1>$B$4:$B$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>